--- a/m6A papers/Performance_0617.xlsx
+++ b/m6A papers/Performance_0617.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paper_implement\m6A papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\m6A papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73060F4-46F0-4806-B663-8FA3DA6F6162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
-    <sheet name="6mA-rice-GC6mA  dataset" sheetId="29" r:id="rId2"/>
-    <sheet name="6mA-rice-Chen dataset" sheetId="30" r:id="rId3"/>
+    <sheet name="6mA-rice-Chen dataset" sheetId="30" r:id="rId2"/>
+    <sheet name="6mA-rice-Lv dataset" sheetId="31" r:id="rId3"/>
+    <sheet name="A. thaliana_31874  dataset" sheetId="32" r:id="rId4"/>
+    <sheet name="R. chinensis_23630  dataset" sheetId="33" r:id="rId5"/>
+    <sheet name="F. vesca_45400  dataset" sheetId="34" r:id="rId6"/>
+    <sheet name="H.sapiens_36670  dataset" sheetId="35" r:id="rId7"/>
+    <sheet name="D.melanogaster_22382  dataset" sheetId="36" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="386">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1496,53 +1500,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ran Su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>one-hot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN+GNN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">i6mA-Pred(ML),SDM6A(ML),iIM-CNN(DL), 6mA-Finder(ML),i6mA-DNC(DL),DNA6mA-MINT(DL),i6mA-stack(ML) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC6mA-Pred</t>
-  </si>
-  <si>
-    <t>just for testing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mA-rice-GC6mA dataset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC6mA-Pred</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
+    <t>P4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 bp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lin-group.cn/server/iDNA6mA-Rice/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv, H., Dao, F.-Y., Guan, Z.-X., Zhang, D., Tan, J.-X., Zhang, Y., et al. (2019). iDNA6mA-Rice: a computational tool for detecting N6-methyladenine sites in rice. Front. Genet. 10, 1–11.</t>
+  </si>
+  <si>
+    <t>6mA-rice-Lv dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. thaliana_31874 dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/raozeng/6mAPred-MSFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. thaliana</t>
+  </si>
+  <si>
+    <t>P17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis_23630  dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. vesca_45400 dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis</t>
+  </si>
+  <si>
+    <t>F. vesca</t>
+  </si>
+  <si>
+    <t>H.sapiens_36670 dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.sapiens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.melanogaster_22382 dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.melanogaster</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2056,13 +2097,76 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2074,29 +2178,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2104,6 +2205,60 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2112,120 +2267,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2247,55 +2288,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>534144</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105111</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B4282A-D56C-074D-D5AB-84712925B0E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8572500" y="1885950"/>
-          <a:ext cx="5334744" cy="2410161"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2309,7 +2301,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE4B732-C4D0-4F1E-845C-355467F77841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE4B732-C4D0-4F1E-845C-355467F77841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2362,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5A25F9-D2E6-4D2E-A3D7-AB1B2750AB8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E5A25F9-D2E6-4D2E-A3D7-AB1B2750AB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2406,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009DAA8B-4BAB-430E-8451-B5794C18003E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009DAA8B-4BAB-430E-8451-B5794C18003E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2450,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165F8D9A-012F-42DF-B7D7-43250FBFD0FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{165F8D9A-012F-42DF-B7D7-43250FBFD0FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2494,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FF390F-A7E4-B2AC-D248-89237C997788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18FF390F-A7E4-B2AC-D248-89237C997788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,6 +2523,493 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1432560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6225540" cy="2659380"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E14E38-344F-4381-9BBF-01315087D80D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3432810" y="1916430"/>
+          <a:ext cx="6225540" cy="2659380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23062</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8978063" cy="4724400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C677865-72F6-4E1F-B80A-274906C82E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3452062" y="4848225"/>
+          <a:ext cx="8978063" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11231542" cy="2029108"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59022CAD-8473-4E1D-8BB4-A44063FB7246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="9848850"/>
+          <a:ext cx="11231542" cy="2029108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11850754" cy="6573167"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F91C3F1-5B2B-21C6-B498-5003F82CCE7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="12153900"/>
+          <a:ext cx="11850754" cy="6573167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6592220" cy="1867161"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D8086A9-168B-E2DD-B9F1-54BF88BF3F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="19069050"/>
+          <a:ext cx="6592220" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201489</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="21164550"/>
+          <a:ext cx="10488489" cy="1467055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1885950"/>
+          <a:ext cx="10498015" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544378</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1885950"/>
+          <a:ext cx="10412278" cy="4858428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592010</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1885950"/>
+          <a:ext cx="10459910" cy="5982535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592010</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>172439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1885950"/>
+          <a:ext cx="10459910" cy="7087589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>667837</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1885950"/>
+          <a:ext cx="7792537" cy="6220693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2542,7 +3021,7 @@
       <sheetName val="6mA-mouse-Feng dataset "/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="F5">
             <v>43749</v>
@@ -2854,11 +3333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:B82"/>
+    <sheetView topLeftCell="M57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2947,50 +3426,50 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="83">
         <v>43672</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="69">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="109" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="63" t="s">
         <v>170</v>
       </c>
       <c r="Q2" s="22" t="s">
@@ -3010,26 +3489,26 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="Q3" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="R3" s="64">
+      <c r="R3" s="71">
         <v>41</v>
       </c>
       <c r="S3" s="20">
@@ -3040,26 +3519,26 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="21">
         <v>1450</v>
       </c>
@@ -3068,56 +3547,56 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="83">
         <v>43749</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="87">
         <v>4.5990000000000002</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="116" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="67" t="s">
         <v>193</v>
       </c>
       <c r="Q5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="69">
         <v>41</v>
       </c>
       <c r="S5" s="41">
@@ -3128,26 +3607,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="70"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="64"/>
       <c r="Q6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="71"/>
       <c r="S6" s="43">
         <v>308000</v>
       </c>
@@ -3156,26 +3635,26 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="71"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="65"/>
       <c r="Q7" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="R7" s="65"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="42">
         <v>3868</v>
       </c>
@@ -3184,56 +3663,56 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="97">
         <v>44029</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="71">
         <v>3.367</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="110" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="70" t="s">
+      <c r="M8" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="70" t="s">
+      <c r="O8" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="119" t="s">
+      <c r="P8" s="66" t="s">
         <v>206</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="64">
+      <c r="R8" s="71">
         <v>41</v>
       </c>
       <c r="S8" s="45">
@@ -3244,26 +3723,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
       <c r="Q9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="64"/>
+      <c r="R9" s="71"/>
       <c r="S9" s="45">
         <v>1450</v>
       </c>
@@ -3272,22 +3751,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
       <c r="Q10" s="6" t="s">
         <v>21</v>
       </c>
@@ -3302,22 +3781,22 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
       <c r="Q11" s="21" t="s">
         <v>135</v>
       </c>
@@ -3332,56 +3811,56 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="83">
         <v>44217</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="69">
         <v>5.7190000000000003</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="82" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="86" t="s">
+      <c r="P12" s="63" t="s">
         <v>227</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="63">
+      <c r="R12" s="69">
         <v>41</v>
       </c>
       <c r="S12" s="19">
@@ -3392,26 +3871,26 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="65"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="21">
         <v>308000</v>
       </c>
@@ -3420,56 +3899,56 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="83">
         <v>44078</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="69">
         <v>8.8859999999999992</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="82" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="N14" s="86" t="s">
+      <c r="N14" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="P14" s="69" t="s">
+      <c r="P14" s="67" t="s">
         <v>235</v>
       </c>
       <c r="Q14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="63">
+      <c r="R14" s="69">
         <v>41</v>
       </c>
       <c r="S14" s="19">
@@ -3480,26 +3959,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
       <c r="Q15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="64"/>
+      <c r="R15" s="71"/>
       <c r="S15" s="20">
         <v>10536</v>
       </c>
@@ -3508,26 +3987,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
       <c r="Q16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="64"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="20">
         <v>18294</v>
       </c>
@@ -3536,26 +4015,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
       <c r="Q17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="64"/>
+      <c r="R17" s="71"/>
       <c r="S17" s="20">
         <v>32100</v>
       </c>
@@ -3564,26 +4043,26 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
       <c r="Q18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="64"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="20">
         <v>16532</v>
       </c>
@@ -3592,26 +4071,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
       <c r="Q19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="64"/>
+      <c r="R19" s="71"/>
       <c r="S19" s="20">
         <v>15810</v>
       </c>
@@ -3620,26 +4099,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
       <c r="Q20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="64"/>
+      <c r="R20" s="71"/>
       <c r="S20" s="20">
         <v>8802</v>
       </c>
@@ -3648,26 +4127,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="71"/>
       <c r="S21" s="20">
         <v>18823</v>
       </c>
@@ -3676,26 +4155,26 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="64"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="20">
         <v>9406</v>
       </c>
@@ -3704,26 +4183,26 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
       <c r="Q23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="64"/>
+      <c r="R23" s="71"/>
       <c r="S23" s="20">
         <v>7048</v>
       </c>
@@ -3732,26 +4211,26 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
       <c r="Q24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R24" s="65"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="21">
         <v>13740</v>
       </c>
@@ -3760,56 +4239,56 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="83">
         <v>43960</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="69">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="109" t="s">
+      <c r="G25" s="67"/>
+      <c r="H25" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="69" t="s">
+      <c r="M25" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="N25" s="86" t="s">
+      <c r="N25" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="O25" s="86" t="s">
+      <c r="O25" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="P25" s="69" t="s">
+      <c r="P25" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="Q25" s="92" t="s">
+      <c r="Q25" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="R25" s="92">
+      <c r="R25" s="115">
         <v>51</v>
       </c>
       <c r="S25" s="19">
@@ -3820,24 +4299,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
       <c r="S26" s="21">
         <v>6540</v>
       </c>
@@ -3846,56 +4325,56 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="83">
         <v>44214</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="69">
         <v>4.4749999999999996</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="109" t="s">
+      <c r="G27" s="67"/>
+      <c r="H27" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="M27" s="69" t="s">
+      <c r="M27" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="N27" s="86" t="s">
+      <c r="N27" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="O27" s="86" t="s">
+      <c r="O27" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="P27" s="69" t="s">
+      <c r="P27" s="67" t="s">
         <v>252</v>
       </c>
       <c r="Q27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R27" s="63">
+      <c r="R27" s="69">
         <v>41</v>
       </c>
       <c r="S27" s="19">
@@ -3907,26 +4386,26 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
       <c r="Q28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R28" s="64"/>
+      <c r="R28" s="71"/>
       <c r="S28" s="20">
         <v>308000</v>
       </c>
@@ -3936,26 +4415,26 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="R29" s="64"/>
+      <c r="R29" s="71"/>
       <c r="S29" s="20">
         <v>196966</v>
       </c>
@@ -3964,26 +4443,26 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
       <c r="Q30" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="R30" s="64"/>
+      <c r="R30" s="71"/>
       <c r="S30" s="20">
         <v>11466</v>
       </c>
@@ -3992,26 +4471,26 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="65"/>
+      <c r="R31" s="70"/>
       <c r="S31" s="21">
         <v>2834</v>
       </c>
@@ -4020,56 +4499,56 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="83">
         <v>44197</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="69">
         <v>3.367</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="109" t="s">
+      <c r="G32" s="67"/>
+      <c r="H32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="85" t="s">
+      <c r="J32" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="K32" s="69" t="s">
+      <c r="K32" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="M32" s="69" t="s">
+      <c r="M32" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="86" t="s">
+      <c r="O32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="P32" s="86" t="s">
+      <c r="P32" s="63" t="s">
         <v>259</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="63">
+      <c r="R32" s="69">
         <v>41</v>
       </c>
       <c r="S32" s="19">
@@ -4080,26 +4559,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
       <c r="Q33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R33" s="64"/>
+      <c r="R33" s="71"/>
       <c r="S33" s="20">
         <v>1450</v>
       </c>
@@ -4108,22 +4587,22 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
       <c r="Q34" s="20" t="s">
         <v>51</v>
       </c>
@@ -4138,22 +4617,22 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="21" t="s">
         <v>52</v>
       </c>
@@ -4226,54 +4705,54 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="76">
+      <c r="D37" s="81"/>
+      <c r="E37" s="83">
         <v>43902</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="109" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J37" s="69" t="s">
+      <c r="J37" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="K37" s="69" t="s">
+      <c r="K37" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="M37" s="85" t="s">
+      <c r="M37" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="N37" s="86" t="s">
+      <c r="N37" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="O37" s="86" t="s">
+      <c r="O37" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="P37" s="69" t="s">
+      <c r="P37" s="67" t="s">
         <v>281</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="63">
+      <c r="R37" s="69">
         <v>41</v>
       </c>
       <c r="S37" s="19">
@@ -4284,26 +4763,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
       <c r="Q38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="R38" s="64"/>
+      <c r="R38" s="71"/>
       <c r="S38" s="20">
         <v>761300</v>
       </c>
@@ -4312,26 +4791,26 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
       <c r="Q39" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="64"/>
+      <c r="R39" s="71"/>
       <c r="S39" s="20">
         <v>76104</v>
       </c>
@@ -4340,26 +4819,26 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
       <c r="Q40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="64"/>
+      <c r="R40" s="71"/>
       <c r="S40" s="20">
         <v>53028</v>
       </c>
@@ -4368,26 +4847,26 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
       <c r="Q41" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R41" s="64"/>
+      <c r="R41" s="71"/>
       <c r="S41" s="20">
         <v>29354</v>
       </c>
@@ -4396,26 +4875,26 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
       <c r="Q42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R42" s="64"/>
+      <c r="R42" s="71"/>
       <c r="S42" s="20">
         <v>1553716</v>
       </c>
@@ -4424,26 +4903,26 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
       <c r="Q43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="R43" s="64"/>
+      <c r="R43" s="71"/>
       <c r="S43" s="20">
         <v>326986</v>
       </c>
@@ -4452,26 +4931,26 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
       <c r="Q44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="64"/>
+      <c r="R44" s="71"/>
       <c r="S44" s="20">
         <v>6903</v>
       </c>
@@ -4480,26 +4959,26 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
       <c r="Q45" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="R45" s="65"/>
+      <c r="R45" s="70"/>
       <c r="S45" s="21">
         <v>8188</v>
       </c>
@@ -4508,54 +4987,54 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69" t="s">
+      <c r="B46" s="67"/>
+      <c r="C46" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="83">
         <v>44078</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="69">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="109" t="s">
+      <c r="G46" s="67"/>
+      <c r="H46" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I46" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="J46" s="69" t="s">
+      <c r="J46" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="K46" s="69" t="s">
+      <c r="K46" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="M46" s="69" t="s">
+      <c r="M46" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="N46" s="69" t="s">
+      <c r="N46" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="O46" s="69" t="s">
+      <c r="O46" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="P46" s="69" t="s">
+      <c r="P46" s="67" t="s">
         <v>180</v>
       </c>
       <c r="Q46" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="63">
+      <c r="R46" s="69">
         <v>41</v>
       </c>
       <c r="S46" s="19">
@@ -4566,26 +5045,26 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
       <c r="Q47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="65"/>
+      <c r="R47" s="70"/>
       <c r="S47" s="21">
         <v>3868</v>
       </c>
@@ -4594,56 +5073,56 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="83">
         <v>44046</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="79" t="s">
+      <c r="G48" s="67"/>
+      <c r="H48" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="I48" s="75" t="s">
+      <c r="I48" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="J48" s="75" t="s">
+      <c r="J48" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="K48" s="75" t="s">
+      <c r="K48" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="M48" s="69" t="s">
+      <c r="M48" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="O48" s="75" t="s">
+      <c r="O48" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="P48" s="69" t="s">
+      <c r="P48" s="67" t="s">
         <v>180</v>
       </c>
       <c r="Q48" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="R48" s="63">
+      <c r="R48" s="69">
         <v>61</v>
       </c>
       <c r="S48" s="54">
@@ -4654,26 +5133,26 @@
       </c>
     </row>
     <row r="49" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="70"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="R49" s="64"/>
+      <c r="R49" s="71"/>
       <c r="S49" s="56">
         <v>21306</v>
       </c>
@@ -4682,26 +5161,26 @@
       </c>
     </row>
     <row r="50" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="70"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="64"/>
       <c r="Q50" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="R50" s="64"/>
+      <c r="R50" s="71"/>
       <c r="S50" s="56">
         <v>67400</v>
       </c>
@@ -4710,26 +5189,26 @@
       </c>
     </row>
     <row r="51" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="70"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="R51" s="64">
+      <c r="R51" s="71">
         <v>401</v>
       </c>
       <c r="S51" s="56">
@@ -4740,26 +5219,26 @@
       </c>
     </row>
     <row r="52" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="70"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="64"/>
       <c r="Q52" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="R52" s="64"/>
+      <c r="R52" s="71"/>
       <c r="S52" s="56">
         <v>8726</v>
       </c>
@@ -4768,26 +5247,26 @@
       </c>
     </row>
     <row r="53" spans="1:20" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="71"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="65"/>
       <c r="Q53" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="R53" s="65"/>
+      <c r="R53" s="70"/>
       <c r="S53" s="55">
         <v>4894</v>
       </c>
@@ -4796,56 +5275,56 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="76">
+      <c r="E54" s="83">
         <v>44418</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="69">
         <v>7.7210000000000001</v>
       </c>
-      <c r="G54" s="69"/>
-      <c r="H54" s="110" t="s">
+      <c r="G54" s="67"/>
+      <c r="H54" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="70" t="s">
+      <c r="I54" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="J54" s="70" t="s">
+      <c r="J54" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="K54" s="85" t="s">
+      <c r="K54" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="L54" s="69" t="s">
+      <c r="L54" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="M54" s="69" t="s">
+      <c r="M54" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="N54" s="69" t="s">
+      <c r="N54" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="O54" s="86" t="s">
+      <c r="O54" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="P54" s="86" t="s">
+      <c r="P54" s="63" t="s">
         <v>318</v>
       </c>
       <c r="Q54" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R54" s="63">
+      <c r="R54" s="69">
         <v>41</v>
       </c>
       <c r="S54" s="19">
@@ -4856,26 +5335,26 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
       <c r="Q55" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="R55" s="64"/>
+      <c r="R55" s="71"/>
       <c r="S55" s="20">
         <v>10536</v>
       </c>
@@ -4884,26 +5363,26 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
       <c r="Q56" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R56" s="64"/>
+      <c r="R56" s="71"/>
       <c r="S56" s="20">
         <v>18294</v>
       </c>
@@ -4912,26 +5391,26 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
       <c r="Q57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="64"/>
+      <c r="R57" s="71"/>
       <c r="S57" s="20">
         <v>32100</v>
       </c>
@@ -4940,26 +5419,26 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
       <c r="Q58" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="64"/>
+      <c r="R58" s="71"/>
       <c r="S58" s="20">
         <v>16532</v>
       </c>
@@ -4968,26 +5447,26 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
       <c r="Q59" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R59" s="64"/>
+      <c r="R59" s="71"/>
       <c r="S59" s="20">
         <v>15810</v>
       </c>
@@ -4996,26 +5475,26 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R60" s="64"/>
+      <c r="R60" s="71"/>
       <c r="S60" s="20">
         <v>8802</v>
       </c>
@@ -5024,26 +5503,26 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
       <c r="Q61" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R61" s="64"/>
+      <c r="R61" s="71"/>
       <c r="S61" s="20">
         <v>18823</v>
       </c>
@@ -5052,26 +5531,26 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
       <c r="Q62" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R62" s="64"/>
+      <c r="R62" s="71"/>
       <c r="S62" s="20">
         <v>9406</v>
       </c>
@@ -5080,26 +5559,26 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
       <c r="Q63" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R63" s="64"/>
+      <c r="R63" s="71"/>
       <c r="S63" s="20">
         <v>7048</v>
       </c>
@@ -5108,26 +5587,26 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
       <c r="Q64" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="R64" s="65"/>
+      <c r="R64" s="70"/>
       <c r="S64" s="21">
         <v>13740</v>
       </c>
@@ -5136,56 +5615,56 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="69" t="s">
+      <c r="A65" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="76">
+      <c r="E65" s="83">
         <v>44330</v>
       </c>
-      <c r="F65" s="63">
+      <c r="F65" s="69">
         <v>4.38</v>
       </c>
-      <c r="G65" s="69"/>
-      <c r="H65" s="82" t="s">
+      <c r="G65" s="67"/>
+      <c r="H65" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="I65" s="69" t="s">
+      <c r="I65" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="J65" s="69" t="s">
+      <c r="J65" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="69" t="s">
+      <c r="K65" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="L65" s="69" t="s">
+      <c r="L65" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="M65" s="69" t="s">
+      <c r="M65" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="N65" s="86" t="s">
+      <c r="N65" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="O65" s="86" t="s">
+      <c r="O65" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="P65" s="86" t="s">
+      <c r="P65" s="63" t="s">
         <v>324</v>
       </c>
       <c r="Q65" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R65" s="63">
+      <c r="R65" s="69">
         <v>41</v>
       </c>
       <c r="S65" s="19">
@@ -5196,26 +5675,26 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="70"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
       <c r="Q66" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R66" s="64"/>
+      <c r="R66" s="71"/>
       <c r="S66" s="20">
         <v>308000</v>
       </c>
@@ -5224,26 +5703,26 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="70"/>
-      <c r="P67" s="70"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
       <c r="Q67" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R67" s="64"/>
+      <c r="R67" s="71"/>
       <c r="S67" s="20">
         <v>8979</v>
       </c>
@@ -5252,26 +5731,26 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="98"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
       <c r="Q68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R68" s="65"/>
+      <c r="R68" s="70"/>
       <c r="S68" s="21">
         <v>67650</v>
       </c>
@@ -5280,56 +5759,56 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="76">
+      <c r="E69" s="83">
         <v>44230</v>
       </c>
-      <c r="F69" s="63">
+      <c r="F69" s="69">
         <v>2.984</v>
       </c>
-      <c r="G69" s="69"/>
-      <c r="H69" s="82" t="s">
+      <c r="G69" s="67"/>
+      <c r="H69" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="69" t="s">
+      <c r="I69" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="J69" s="69" t="s">
+      <c r="J69" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="K69" s="85" t="s">
+      <c r="K69" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="L69" s="69" t="s">
+      <c r="L69" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="M69" s="69" t="s">
+      <c r="M69" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="N69" s="86" t="s">
+      <c r="N69" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="O69" s="86" t="s">
+      <c r="O69" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="P69" s="86" t="s">
+      <c r="P69" s="63" t="s">
         <v>339</v>
       </c>
       <c r="Q69" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R69" s="63">
+      <c r="R69" s="69">
         <v>41</v>
       </c>
       <c r="S69" s="19">
@@ -5340,26 +5819,26 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="70"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="70"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64"/>
       <c r="Q70" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R70" s="64"/>
+      <c r="R70" s="71"/>
       <c r="S70" s="20">
         <v>3868</v>
       </c>
@@ -5368,26 +5847,26 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
       <c r="Q71" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R71" s="65"/>
+      <c r="R71" s="70"/>
       <c r="S71" s="21">
         <v>1229712</v>
       </c>
@@ -5396,54 +5875,54 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="100" t="s">
+      <c r="B72" s="107"/>
+      <c r="C72" s="109" t="s">
         <v>340</v>
       </c>
-      <c r="D72" s="112" t="s">
+      <c r="D72" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="76">
+      <c r="E72" s="83">
         <v>44209</v>
       </c>
-      <c r="F72" s="66">
+      <c r="F72" s="87">
         <v>11.622</v>
       </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="109" t="s">
+      <c r="G72" s="69"/>
+      <c r="H72" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="75" t="s">
+      <c r="I72" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="J72" s="75" t="s">
+      <c r="J72" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="K72" s="63" t="s">
+      <c r="K72" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="L72" s="75" t="s">
+      <c r="L72" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="M72" s="75" t="s">
+      <c r="M72" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="N72" s="63" t="s">
+      <c r="N72" s="69" t="s">
         <v>345</v>
       </c>
-      <c r="O72" s="75" t="s">
+      <c r="O72" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="P72" s="86" t="s">
+      <c r="P72" s="63" t="s">
         <v>344</v>
       </c>
       <c r="Q72" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="R72" s="63">
+      <c r="R72" s="69">
         <v>41</v>
       </c>
       <c r="S72" s="19">
@@ -5454,26 +5933,26 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="96"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="74"/>
-      <c r="P73" s="71"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="65"/>
       <c r="Q73" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="R73" s="65"/>
+      <c r="R73" s="70"/>
       <c r="S73" s="21">
         <v>21306</v>
       </c>
@@ -5482,56 +5961,56 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="D74" s="99" t="s">
+      <c r="D74" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E74" s="97">
         <v>44430</v>
       </c>
-      <c r="F74" s="64">
+      <c r="F74" s="71">
         <v>2.6789999999999998</v>
       </c>
-      <c r="G74" s="69"/>
-      <c r="H74" s="109" t="s">
+      <c r="G74" s="67"/>
+      <c r="H74" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="69" t="s">
+      <c r="I74" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="J74" s="69" t="s">
+      <c r="J74" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="K74" s="69" t="s">
+      <c r="K74" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="L74" s="69" t="s">
+      <c r="L74" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="M74" s="69" t="s">
+      <c r="M74" s="67" t="s">
         <v>351</v>
       </c>
-      <c r="N74" s="86" t="s">
+      <c r="N74" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="O74" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="P74" s="69" t="s">
+      <c r="O74" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="P74" s="67" t="s">
         <v>353</v>
       </c>
       <c r="Q74" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="63">
+      <c r="R74" s="69">
         <v>41</v>
       </c>
       <c r="S74" s="19">
@@ -5542,26 +6021,26 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64"/>
       <c r="Q75" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R75" s="64"/>
+      <c r="R75" s="71"/>
       <c r="S75" s="20">
         <v>1760</v>
       </c>
@@ -5570,26 +6049,26 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="110"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="70"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="70"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64"/>
       <c r="Q76" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R76" s="64"/>
+      <c r="R76" s="71"/>
       <c r="S76" s="20">
         <v>31874</v>
       </c>
@@ -5598,26 +6077,26 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="70"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
       <c r="Q77" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R77" s="64"/>
+      <c r="R77" s="71"/>
       <c r="S77" s="20">
         <v>23630</v>
       </c>
@@ -5626,26 +6105,26 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="110"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
       <c r="Q78" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R78" s="64"/>
+      <c r="R78" s="71"/>
       <c r="S78" s="20">
         <v>45400</v>
       </c>
@@ -5654,26 +6133,26 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="64"/>
       <c r="Q79" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="R79" s="64"/>
+      <c r="R79" s="71"/>
       <c r="S79" s="20">
         <v>36670</v>
       </c>
@@ -5682,26 +6161,26 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="111"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="65"/>
       <c r="Q80" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="R80" s="65"/>
+      <c r="R80" s="70"/>
       <c r="S80" s="21">
         <v>22382</v>
       </c>
@@ -5710,56 +6189,38 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="D81" s="97" t="s">
+      <c r="C81" s="67"/>
+      <c r="D81" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="76">
-        <v>44570</v>
-      </c>
-      <c r="F81" s="63" t="s">
+      <c r="E81" s="83">
+        <v>2022</v>
+      </c>
+      <c r="F81" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="G81" s="69"/>
-      <c r="H81" s="109" t="s">
+      <c r="G81" s="67"/>
+      <c r="H81" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="J81" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="K81" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="L81" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="M81" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="N81" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="O81" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="P81" s="69" t="s">
-        <v>369</v>
-      </c>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
       <c r="Q81" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="R81" s="63">
+      <c r="R81" s="69">
         <v>41</v>
       </c>
       <c r="S81" s="19">
@@ -5770,26 +6231,26 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65"/>
       <c r="Q82" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="R82" s="65"/>
+      <c r="R82" s="70"/>
       <c r="S82" s="21">
         <v>24000</v>
       </c>
@@ -5798,38 +6259,38 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="112" t="s">
+      <c r="C83" s="67"/>
+      <c r="D83" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="63">
+      <c r="E83" s="69">
         <v>2022</v>
       </c>
-      <c r="F83" s="63">
+      <c r="F83" s="69">
         <v>11.622</v>
       </c>
-      <c r="G83" s="69"/>
-      <c r="H83" s="109" t="s">
+      <c r="G83" s="67"/>
+      <c r="H83" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="69"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="69"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
       <c r="Q83" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="R83" s="63">
+      <c r="R83" s="69">
         <v>41</v>
       </c>
       <c r="S83" s="19">
@@ -5840,26 +6301,26 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="64"/>
       <c r="Q84" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="R84" s="64"/>
+      <c r="R84" s="71"/>
       <c r="S84" s="20">
         <v>308000</v>
       </c>
@@ -5868,26 +6329,26 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="110"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="70"/>
-      <c r="N85" s="70"/>
-      <c r="O85" s="70"/>
-      <c r="P85" s="70"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
       <c r="Q85" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="R85" s="64"/>
+      <c r="R85" s="71"/>
       <c r="S85" s="20">
         <v>20000</v>
       </c>
@@ -5896,26 +6357,26 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="70"/>
-      <c r="M86" s="70"/>
-      <c r="N86" s="70"/>
-      <c r="O86" s="70"/>
-      <c r="P86" s="70"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
       <c r="Q86" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="R86" s="64"/>
+      <c r="R86" s="71"/>
       <c r="S86" s="20">
         <v>31874</v>
       </c>
@@ -5924,26 +6385,26 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="70"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="64"/>
       <c r="Q87" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R87" s="64"/>
+      <c r="R87" s="71"/>
       <c r="S87" s="20">
         <v>22382</v>
       </c>
@@ -5952,26 +6413,26 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="111"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
       <c r="Q88" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R88" s="65"/>
+      <c r="R88" s="70"/>
       <c r="S88" s="33">
         <v>23630</v>
       </c>
@@ -5980,38 +6441,38 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
+      <c r="A89" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="97" t="s">
+      <c r="C89" s="67"/>
+      <c r="D89" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="63">
+      <c r="E89" s="69">
         <v>2021</v>
       </c>
-      <c r="F89" s="63">
+      <c r="F89" s="69">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G89" s="69"/>
-      <c r="H89" s="82" t="s">
+      <c r="G89" s="67"/>
+      <c r="H89" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="69"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
       <c r="Q89" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="R89" s="63">
+      <c r="R89" s="69">
         <v>41</v>
       </c>
       <c r="S89" s="34">
@@ -6022,26 +6483,26 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="70"/>
-      <c r="O90" s="70"/>
-      <c r="P90" s="70"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="64"/>
       <c r="Q90" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="R90" s="64"/>
+      <c r="R90" s="71"/>
       <c r="S90" s="34">
         <v>1450</v>
       </c>
@@ -6050,22 +6511,22 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="64"/>
       <c r="Q91" s="20" t="s">
         <v>79</v>
       </c>
@@ -6080,22 +6541,22 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
-      <c r="O92" s="71"/>
-      <c r="P92" s="71"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
       <c r="Q92" s="26" t="s">
         <v>103</v>
       </c>
@@ -6110,36 +6571,36 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B93" s="69" t="s">
+      <c r="B93" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="63">
+      <c r="C93" s="67"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="69">
         <v>2022</v>
       </c>
-      <c r="F93" s="63" t="s">
+      <c r="F93" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="G93" s="69"/>
-      <c r="H93" s="109" t="s">
+      <c r="G93" s="67"/>
+      <c r="H93" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="67"/>
+      <c r="M93" s="67"/>
+      <c r="N93" s="67"/>
+      <c r="O93" s="67"/>
+      <c r="P93" s="67"/>
       <c r="Q93" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="R93" s="63">
+      <c r="R93" s="69">
         <v>41</v>
       </c>
       <c r="S93" s="34">
@@ -6150,26 +6611,26 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="64"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64"/>
       <c r="Q94" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="R94" s="64"/>
+      <c r="R94" s="71"/>
       <c r="S94" s="20">
         <v>8606</v>
       </c>
@@ -6178,26 +6639,26 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="110"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
       <c r="Q95" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="R95" s="64"/>
+      <c r="R95" s="71"/>
       <c r="S95" s="20">
         <v>776</v>
       </c>
@@ -6206,22 +6667,22 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="98"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
-      <c r="O96" s="71"/>
-      <c r="P96" s="71"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
       <c r="Q96" s="26" t="s">
         <v>103</v>
       </c>
@@ -6274,36 +6735,36 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="64">
+      <c r="C98" s="64"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="71">
         <v>2022</v>
       </c>
-      <c r="F98" s="64" t="s">
+      <c r="F98" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G98" s="70"/>
-      <c r="H98" s="110" t="s">
+      <c r="G98" s="64"/>
+      <c r="H98" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64"/>
       <c r="Q98" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="R98" s="64">
+      <c r="R98" s="71">
         <v>41</v>
       </c>
       <c r="S98" s="34">
@@ -6314,26 +6775,26 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="98"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
-      <c r="P99" s="71"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
       <c r="Q99" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="R99" s="65"/>
+      <c r="R99" s="70"/>
       <c r="S99" s="21">
         <v>31873</v>
       </c>
@@ -6384,38 +6845,38 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="B101" s="69" t="s">
+      <c r="B101" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="97" t="s">
+      <c r="C101" s="67"/>
+      <c r="D101" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="63">
+      <c r="E101" s="69">
         <v>2020</v>
       </c>
-      <c r="F101" s="63">
+      <c r="F101" s="69">
         <v>4.0759999999999996</v>
       </c>
-      <c r="G101" s="69"/>
-      <c r="H101" s="107" t="s">
+      <c r="G101" s="67"/>
+      <c r="H101" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="69"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="69"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="69"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="69"/>
-      <c r="P101" s="69"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
       <c r="Q101" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="R101" s="105">
+      <c r="R101" s="104">
         <v>41</v>
       </c>
       <c r="S101" s="19">
@@ -6426,26 +6887,26 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="71"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="98"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="108"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71"/>
-      <c r="O102" s="71"/>
-      <c r="P102" s="71"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65"/>
       <c r="Q102" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="R102" s="106"/>
+      <c r="R102" s="105"/>
       <c r="S102" s="21">
         <v>11466</v>
       </c>
@@ -6454,34 +6915,34 @@
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="69"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="63">
+      <c r="C103" s="67"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="69">
         <v>2020</v>
       </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="107" t="s">
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="I103" s="69"/>
-      <c r="J103" s="69"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="69"/>
-      <c r="P103" s="69"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
+      <c r="N103" s="67"/>
+      <c r="O103" s="67"/>
+      <c r="P103" s="67"/>
       <c r="Q103" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="R103" s="63">
+      <c r="R103" s="69">
         <v>41</v>
       </c>
       <c r="S103" s="27">
@@ -6492,26 +6953,26 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="108"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71"/>
-      <c r="O104" s="71"/>
-      <c r="P104" s="71"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65"/>
       <c r="Q104" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R104" s="65"/>
+      <c r="R104" s="70"/>
       <c r="S104" s="28">
         <v>308000</v>
       </c>
@@ -6520,30 +6981,30 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="63">
+      <c r="C105" s="67"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="69">
         <v>2020</v>
       </c>
-      <c r="F105" s="63"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="102" t="s">
+      <c r="F105" s="69"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="I105" s="69"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="69"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="67"/>
+      <c r="N105" s="67"/>
+      <c r="O105" s="67"/>
+      <c r="P105" s="67"/>
       <c r="Q105" s="29" t="s">
         <v>145</v>
       </c>
@@ -6558,22 +7019,22 @@
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="70"/>
-      <c r="P106" s="70"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="100"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
       <c r="Q106" s="12" t="s">
         <v>123</v>
       </c>
@@ -6588,22 +7049,22 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="71"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="98"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71"/>
-      <c r="O107" s="71"/>
-      <c r="P107" s="71"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="101"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
+      <c r="L107" s="65"/>
+      <c r="M107" s="65"/>
+      <c r="N107" s="65"/>
+      <c r="O107" s="65"/>
+      <c r="P107" s="65"/>
       <c r="Q107" s="30" t="s">
         <v>124</v>
       </c>
@@ -6656,30 +7117,30 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="69" t="s">
+      <c r="B109" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="69"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="63">
+      <c r="C109" s="67"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="69">
         <v>2019</v>
       </c>
-      <c r="F109" s="63"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="115" t="s">
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="69"/>
-      <c r="P109" s="69"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="67"/>
+      <c r="O109" s="67"/>
+      <c r="P109" s="67"/>
       <c r="Q109" s="29" t="s">
         <v>77</v>
       </c>
@@ -6694,22 +7155,22 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
-      <c r="K110" s="70"/>
-      <c r="L110" s="70"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="70"/>
-      <c r="O110" s="70"/>
-      <c r="P110" s="70"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="100"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="64"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="64"/>
       <c r="Q110" s="12" t="s">
         <v>123</v>
       </c>
@@ -6724,22 +7185,22 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="71"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="98"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="104"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="71"/>
-      <c r="N111" s="71"/>
-      <c r="O111" s="71"/>
-      <c r="P111" s="71"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="65"/>
+      <c r="P111" s="65"/>
       <c r="Q111" s="30" t="s">
         <v>124</v>
       </c>
@@ -6761,6 +7222,407 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="425">
+    <mergeCell ref="R48:R50"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="M48:M53"/>
+    <mergeCell ref="N48:N53"/>
+    <mergeCell ref="O48:O53"/>
+    <mergeCell ref="P48:P53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="N109:N111"/>
+    <mergeCell ref="O105:O107"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="N74:N80"/>
+    <mergeCell ref="M54:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M74:M80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="M109:M111"/>
+    <mergeCell ref="R14:R24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="N54:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="L74:L80"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J80"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L37:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J37:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I37:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I54:I64"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I80"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G54:G64"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="P109:P111"/>
+    <mergeCell ref="P105:P107"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="R83:R88"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="R93:R95"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E14:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P37:P45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P54:P64"/>
+    <mergeCell ref="P65:P68"/>
+    <mergeCell ref="P69:P71"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H37:H45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="E54:E64"/>
+    <mergeCell ref="L54:L64"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M37:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D74:D80"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="H54:H64"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="R37:R45"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R54:R64"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="D54:D64"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="P74:P80"/>
+    <mergeCell ref="R74:R80"/>
+    <mergeCell ref="P14:P24"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="P27:P31"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O37:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O54:O64"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="O74:O80"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R12:R13"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="P8:P11"/>
     <mergeCell ref="K37:K45"/>
@@ -6785,439 +7647,38 @@
     <mergeCell ref="N8:N11"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N14:N24"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="P74:P80"/>
-    <mergeCell ref="R74:R80"/>
-    <mergeCell ref="P14:P24"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="P27:P31"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="O37:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O54:O64"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="O74:O80"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D74:D80"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="H54:H64"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="R37:R45"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R54:R64"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F54:F64"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="D54:D64"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P37:P45"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="P54:P64"/>
-    <mergeCell ref="P65:P68"/>
-    <mergeCell ref="P69:P71"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H37:H45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="E54:E64"/>
-    <mergeCell ref="L54:L64"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M37:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="H74:H80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="R83:R88"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="R93:R95"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="P109:P111"/>
-    <mergeCell ref="P105:P107"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G54:G64"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I37:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I54:I64"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J37:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="L37:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="L74:L80"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J80"/>
-    <mergeCell ref="R14:R24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="N54:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="N109:N111"/>
-    <mergeCell ref="O105:O107"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="N74:N80"/>
-    <mergeCell ref="M54:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="M74:M80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="M109:M111"/>
-    <mergeCell ref="R48:R50"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="M48:M53"/>
-    <mergeCell ref="N48:N53"/>
-    <mergeCell ref="O48:O53"/>
-    <mergeCell ref="P48:P53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="P8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="O37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N48" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O48" r:id="rId18" display="https://github.com/tanfei2007/DeepM6A/tree/master/Data" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O54" r:id="rId19" xr:uid="{B0EFD173-7767-4562-A2F2-CF9A4C08CC2F}"/>
-    <hyperlink ref="P54" r:id="rId20" xr:uid="{6C1F23CA-9A96-4A52-B4FA-35D6F3FA19F5}"/>
-    <hyperlink ref="P65" r:id="rId21" xr:uid="{3F94D8A6-408A-4FC5-9199-524747231AB0}"/>
-    <hyperlink ref="O65" r:id="rId22" xr:uid="{B3505438-5788-461F-AA71-B1AF0E96C165}"/>
-    <hyperlink ref="N65" r:id="rId23" xr:uid="{65C0DC72-23BA-487C-96E5-FAD6D6E269D8}"/>
-    <hyperlink ref="N69" r:id="rId24" xr:uid="{A188285E-4A7B-4C86-B3FB-4FF87FC35534}"/>
-    <hyperlink ref="O69" r:id="rId25" xr:uid="{9822E996-A697-4C4D-AAC6-FE3C74CEA98B}"/>
-    <hyperlink ref="P69" r:id="rId26" xr:uid="{8B65A868-E48B-470B-B103-BDA0BAE3E9FB}"/>
-    <hyperlink ref="P72" r:id="rId27" xr:uid="{D4B11EFE-8773-4675-921B-C9F740300103}"/>
-    <hyperlink ref="N74" r:id="rId28" xr:uid="{2065140C-3B95-41C6-BD9F-DE14E60144E2}"/>
-    <hyperlink ref="O74" r:id="rId29" xr:uid="{9C114FFA-4ED8-4FEC-A3F1-8FBADA60B0A6}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="N5" r:id="rId2"/>
+    <hyperlink ref="O5" r:id="rId3"/>
+    <hyperlink ref="P8" r:id="rId4"/>
+    <hyperlink ref="P12" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N25" r:id="rId7"/>
+    <hyperlink ref="O25" r:id="rId8"/>
+    <hyperlink ref="N27" r:id="rId9"/>
+    <hyperlink ref="O27" r:id="rId10"/>
+    <hyperlink ref="P32" r:id="rId11"/>
+    <hyperlink ref="O32" r:id="rId12"/>
+    <hyperlink ref="N36" r:id="rId13"/>
+    <hyperlink ref="O36" r:id="rId14"/>
+    <hyperlink ref="N37" r:id="rId15"/>
+    <hyperlink ref="O37" r:id="rId16"/>
+    <hyperlink ref="N48" r:id="rId17"/>
+    <hyperlink ref="O48" r:id="rId18" display="https://github.com/tanfei2007/DeepM6A/tree/master/Data"/>
+    <hyperlink ref="O54" r:id="rId19"/>
+    <hyperlink ref="P54" r:id="rId20"/>
+    <hyperlink ref="P65" r:id="rId21"/>
+    <hyperlink ref="O65" r:id="rId22"/>
+    <hyperlink ref="N65" r:id="rId23"/>
+    <hyperlink ref="N69" r:id="rId24"/>
+    <hyperlink ref="O69" r:id="rId25"/>
+    <hyperlink ref="P69" r:id="rId26"/>
+    <hyperlink ref="P72" r:id="rId27"/>
+    <hyperlink ref="N74" r:id="rId28"/>
+    <hyperlink ref="O74" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId30"/>
@@ -7225,155 +7686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564E5E1E-F33C-4876-B374-7183B1CFE9A9}">
-  <dimension ref="A1:F108"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="47"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="47">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" s="47">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="50">
-        <v>44570</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="49"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="49"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="49"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="49"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="49"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108" s="49"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://lin-group.cn/server/iDNA6mA-Rice/" xr:uid="{7CD7D1E8-4526-4FD8-9023-E038AACAFDC3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B5450E-FF01-4871-BD5B-C7D9DA416863}">
-  <dimension ref="A1:G94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7521,15 +7838,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="D15" s="50">
-        <v>44570</v>
-      </c>
+      <c r="B15" s="49"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
@@ -7563,18 +7873,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="G94" s="47" t="s">
-        <v>372</v>
-      </c>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7582,4 +7887,901 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="50">
+        <f>[1]paper!$F$5</f>
+        <v>43749</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="50">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="50">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="50">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="50">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="50">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>15937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>15937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="50">
+        <v>44430</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="50">
+        <v>44430</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="50">
+        <v>44430</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>18335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>18335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="50">
+        <v>44430</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="47">
+        <v>11191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="47">
+        <v>11191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="50">
+        <v>44430</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="49"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="49"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>